--- a/template/excel1.xlsx
+++ b/template/excel1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>家庭库存</t>
   </si>
@@ -147,7 +147,10 @@
     <t>图片</t>
   </si>
   <si>
-    <t>${thing[*]_id}</t>
+    <t>物品2编号2</t>
+  </si>
+  <si>
+    <t>${thing[*]_id|merge_bottom;}</t>
   </si>
   <si>
     <t>${thing[*]_room}</t>
@@ -168,7 +171,7 @@
     <t>${thing[*]_source}</t>
   </si>
   <si>
-    <t>${thing[*]_price}</t>
+    <t>${thing[*]_price|merge_bottom;}</t>
   </si>
   <si>
     <t>${thing[*]_eval_price}</t>
@@ -233,9 +236,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="177" formatCode="\¥#,##0.00_);\(\¥#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="21">
@@ -696,10 +699,10 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -829,10 +832,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="54" applyFill="1">
@@ -853,7 +856,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1369,9 +1372,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="库存" displayName="库存" ref="B9:M11" totalsRowCount="1">
-  <autoFilter ref="B9:M10"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="库存" displayName="库存" ref="B9:N11" totalsRowCount="1">
+  <autoFilter ref="B9:N10"/>
+  <tableColumns count="13">
     <tableColumn id="21" name="物品编号" totalsRowLabel="总计"/>
     <tableColumn id="3" name="房间/区域" totalsRowFunction="custom">
       <totalsRowFormula>"库存项目: "&amp;SUBTOTAL(103,库存[房间/区域])</totalsRowFormula>
@@ -1386,6 +1389,7 @@
     <tableColumn id="13" name="备注"/>
     <tableColumn id="14" name="是否有照片？"/>
     <tableColumn id="1" name="图片"/>
+    <tableColumn id="2" name="物品2编号2" totalsRowLabel="总计"/>
   </tableColumns>
   <tableStyleInfo name="家庭库存" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1579,10 +1583,10 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1641,7 +1645,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="22">
         <f ca="1">TODAY()-35</f>
-        <v>44904</v>
+        <v>44936</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1773,7 +1777,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" ht="37.5" customHeight="1" spans="2:13">
+    <row r="9" ht="37.5" customHeight="1" spans="2:14">
       <c r="B9" s="18" t="s">
         <v>26</v>
       </c>
@@ -1810,48 +1814,68 @@
       <c r="M9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" ht="162" customHeight="1" spans="2:13">
+      <c r="N9" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" ht="162" customHeight="1" spans="2:28">
       <c r="B10" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:12">
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10" s="18"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:28">
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="str">
         <f>"库存项目: "&amp;SUBTOTAL(103,库存[房间/区域])</f>
@@ -1874,6 +1898,48 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="21"/>
+      <c r="V11"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11" s="19"/>
+    </row>
+    <row r="12" customHeight="1" spans="15:28">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="15" customHeight="1" spans="4:11">
+      <c r="D15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" customHeight="1" spans="4:4">
+      <c r="D16"/>
+    </row>
+    <row r="17" customHeight="1" spans="4:4">
+      <c r="D17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1897,6 +1963,20 @@
     <mergeCell ref="D5:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="J10">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3047c0d6-23f1-4e28-9b08-05d1afe42b6b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1905,7 +1985,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e5f1b785-a06f-42ff-a4ab-8cbd93845960}</x14:id>
+          <x14:id>{fe178f50-72f6-4b43-88f2-68f021ea18f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1917,30 +1997,30 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在右侧单元格中输入库存日期" sqref="G2:H2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此单元格中输入库存日期" sqref="I2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="此单元格自动计算所有物品的总估值。在单元格 I2 中输入库存日期" sqref="E2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="从列表中选择房间/区域。在房间查找工作表中输入新的房间/区域。选择“取消”，然后按 Alt+向下键可出现选项，然后按向下键和 Enter 做出选择" sqref="C10" errorStyle="warning">
-      <formula1>RoomList</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在右侧单元格中输入保险公司名称" sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入购买日期" sqref="G9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入购买日期" sqref="G9 U10"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在右侧单元格中输入保险公司电话号码" sqref="H4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在右侧单元格中输入保险公司保单号" sqref="H5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在右侧单元格中输入保险代理人姓名" sqref="H6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在右侧单元格中输入保险代理人电话号码" sqref="H7"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在右侧单元格中输入保险代理人地址" sqref="H8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入备注" sqref="K9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入序列号/ID 号" sqref="F9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入备注" sqref="K9 Y10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入序列号/ID 号" sqref="F9 T10"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此单元格中输入保险代理人地址，在表格中自单元格 B10 起输入库存详细信息。使用单元格 B9 中的切片器来按房间/区域筛选物品" sqref="I8:K8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入物品编号。使用标题筛选器来查找特定项" sqref="B9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中选择房间/区域。在房间查找工作表中输入新的房间/区域。按 Alt+向下键可出现选项，然后按向下键和 Enter 做出选择" sqref="C9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入各个项/说明" sqref="D9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入品牌/型号" sqref="E9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入购买地点" sqref="H9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入购买价格" sqref="I9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入当前估值。每行中显示当前估值的数据条会自动更新" sqref="J9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="如果物品的照片存在，则选择“是”，否则在此标题下的此列中选择“否”。按 Alt+向下键可显示选项，然后按向下键和 Enter 进行选择" sqref="L9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="无效数据" error="请从列表中选择条目。若要添加或更改物品，请使用房间查找工作表上的房间/区域表。 " sqref="B10"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="从此列表中选择“是”或“否”以指明物品的照片是否存在。选择“取消”，按 Alt+向下键可显示选项，然后按向下键和 Enter 做出选择" sqref="L10" errorStyle="warning">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入物品编号。使用标题筛选器来查找特定项" sqref="B9 N9 O10 P10 AB10"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="从此列表中选择“是”或“否”以指明物品的照片是否存在。选择“取消”，按 Alt+向下键可显示选项，然后按向下键和 Enter 做出选择" sqref="L10 Z11" errorStyle="warning">
       <formula1>"是, 否"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中选择房间/区域。在房间查找工作表中输入新的房间/区域。按 Alt+向下键可出现选项，然后按向下键和 Enter 做出选择" sqref="C9 Q10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入各个项/说明" sqref="D9 R10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入品牌/型号" sqref="E9 S10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入购买地点" sqref="H9 V10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入购买价格" sqref="I9 W10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在此标题下的此列中输入当前估值。每行中显示当前估值的数据条会自动更新" sqref="J9 X10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="如果物品的照片存在，则选择“是”，否则在此标题下的此列中选择“否”。按 Alt+向下键可显示选项，然后按向下键和 Enter 进行选择" sqref="L9 Z10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="无效数据" error="请从列表中选择条目。若要添加或更改物品，请使用房间查找工作表上的房间/区域表。 " sqref="B10 N10 O11 P11 AB11 B13"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="从列表中选择房间/区域。在房间查找工作表中输入新的房间/区域。选择“取消”，然后按 Alt+向下键可出现选项，然后按向下键和 Enter 做出选择" sqref="C10 Q11" errorStyle="warning">
+      <formula1>RoomList</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在单元格 C3 到 E8 中输入个人详细信息，在单元格 H3 到 K8 中输入保险信息" sqref="B3:B4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="在右侧单元格中输入业主姓名" sqref="C3:C4"/>
@@ -1960,7 +2040,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e5f1b785-a06f-42ff-a4ab-8cbd93845960}">
+          <x14:cfRule type="dataBar" id="{3047c0d6-23f1-4e28-9b08-05d1afe42b6b}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1969,6 +2049,17 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>J10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{fe178f50-72f6-4b43-88f2-68f021ea18f5}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>X11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1997,12 +2088,12 @@
   <sheetData>
     <row r="1" ht="35.1" customHeight="1" spans="2:2">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="50.1" customHeight="1" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
@@ -2012,62 +2103,62 @@
     </row>
     <row r="4" customHeight="1" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:2">
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:2">
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
